--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '21</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '21</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>5,934.17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5,811.68</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6,595.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7,228.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>7,337.05</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7,228.59</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6,595.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5,811.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5,934.17</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>7337.05</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5811.68</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6581.324000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>104.22</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>213.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>294.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>280.03</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>294.48</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>213.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>104.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.01</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>294.48</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>192.768</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>6,006.18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5,915.90</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6,808.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7,523.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>7,617.08</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7,523.07</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6,808.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5,915.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6,006.18</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>7617.08</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>5915.9</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>6774.092</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>686.21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>548.69</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>848.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>920.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>905.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>920.13</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>848.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>548.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>686.21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>920.13</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>548.6900000000001</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>781.6180000000001</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>96.10</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>88.80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>82.43000000000001</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>87.964</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,200.81</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,724.40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,239.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>994.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>663.73</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>994.64</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,239.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,724.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,200.81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1724.4</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>663.73</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1164.574</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>743.54</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>648.07</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>976.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>940.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>948.10</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>940.04</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>976.90</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>648.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>743.54</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>976.9</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>648.0700000000001</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>851.3299999999999</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>3,290.71</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,912.31</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,656.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4,579.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>5,004.15</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4,579.46</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,656.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,912.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,290.71</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>5004.15</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2912.31</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3888.606</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2.272</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,294.87</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,913.37</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,656.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4,581.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>5,007.26</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4,581.94</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,656.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,913.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,294.87</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5007.26</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2913.37</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3890.878</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,723.27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,763.90</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,889.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,972.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,947.80</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,972.10</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,889.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,763.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,723.27</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1972.1</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1723.27</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1859.28</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,571.60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,149.47</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,767.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,609.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,059.46</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,609.84</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,767.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,149.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,571.60</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3059.46</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1149.47</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2031.598</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,571.60</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,149.47</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,767.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2,609.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,059.46</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2,609.84</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,767.62</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,149.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,571.60</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3059.46</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1149.47</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2031.598</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>410.75</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>306.55</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>461.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>675.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>791.51</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>675.99</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>461.85</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>306.55</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>410.75</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>791.51</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>306.55</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>529.33</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,160.85</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>842.92</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,305.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,933.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,267.95</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,933.85</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,305.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>842.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,160.85</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2267.95</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>842.92</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1502.268</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,160.85</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>842.92</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,305.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,933.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,267.95</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,933.85</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,305.77</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>842.92</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,160.85</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2267.95</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>842.92</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1502.268</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>120.32</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>120.46</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>120.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>120.66</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>120.60</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>120.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>120.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>120.32</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>120.66</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>120.32</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>120.51</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>37.60</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>32.08</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>24.972</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>37.36</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>31.86</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>19.17</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>24.766</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>37.60</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>32.08</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>24.972</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>37.36</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>31.86</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>19.17</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>24.766</v>
       </c>
     </row>
     <row r="29"/>
